--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2891.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2891.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.208193029592458</v>
+        <v>1.882332563400269</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>2.00743842124939</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>2.066988706588745</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>2.644529819488525</v>
       </c>
       <c r="E1">
-        <v>1.201828585582673</v>
+        <v>3.811570644378662</v>
       </c>
     </row>
   </sheetData>
